--- a/doc/objects/cat021.xlsx
+++ b/doc/objects/cat021.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="496">
   <si>
     <t xml:space="preserve">COLID</t>
   </si>
@@ -1598,7 +1598,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1625,10 +1625,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1662,7 +1658,7 @@
       <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.01"/>
@@ -4040,11 +4036,11 @@
   </sheetPr>
   <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C70" activeCellId="0" sqref="C70"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="64.67"/>
@@ -6197,13 +6193,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A97" activeCellId="0" sqref="A97"/>
+      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="58.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.8"/>
@@ -6228,6 +6224,9 @@
       <c r="E1" s="2" t="s">
         <v>424</v>
       </c>
+      <c r="F1" s="0" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -6240,6 +6239,9 @@
       <c r="D2" s="6" t="s">
         <v>213</v>
       </c>
+      <c r="F2" s="0" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -6254,6 +6256,9 @@
       <c r="E3" s="5" t="s">
         <v>427</v>
       </c>
+      <c r="F3" s="0" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -6268,6 +6273,9 @@
       <c r="E4" s="5" t="s">
         <v>427</v>
       </c>
+      <c r="F4" s="0" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -6282,6 +6290,9 @@
       <c r="D5" s="6" t="s">
         <v>223</v>
       </c>
+      <c r="F5" s="0" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -6299,6 +6310,9 @@
       <c r="E6" s="0" t="s">
         <v>430</v>
       </c>
+      <c r="F6" s="0" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
@@ -6316,8 +6330,11 @@
       <c r="E7" s="0" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="8" s="9" customFormat="true" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F7" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" s="8" customFormat="true" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
         <v>433</v>
       </c>
@@ -6328,8 +6345,11 @@
         <v>231</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>434</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6343,6 +6363,9 @@
       <c r="D9" s="6" t="s">
         <v>234</v>
       </c>
+      <c r="F9" s="0" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
@@ -6357,6 +6380,9 @@
       <c r="E10" s="0" t="s">
         <v>430</v>
       </c>
+      <c r="F10" s="0" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -6368,6 +6394,9 @@
       <c r="C11" s="0" t="s">
         <v>239</v>
       </c>
+      <c r="F11" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -6382,6 +6411,9 @@
       <c r="D12" s="6" t="s">
         <v>240</v>
       </c>
+      <c r="F12" s="0" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -6399,6 +6431,9 @@
       <c r="E13" s="0" t="s">
         <v>430</v>
       </c>
+      <c r="F13" s="0" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
@@ -6413,6 +6448,9 @@
       <c r="E14" s="0" t="s">
         <v>430</v>
       </c>
+      <c r="F14" s="0" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
@@ -6424,6 +6462,9 @@
       <c r="E15" s="0" t="s">
         <v>440</v>
       </c>
+      <c r="F15" s="0" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
@@ -6431,7 +6472,7 @@
       </c>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
         <v>248</v>
       </c>
@@ -6444,8 +6485,11 @@
       <c r="E17" s="5" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
         <v>251</v>
       </c>
@@ -6457,6 +6501,9 @@
       </c>
       <c r="E18" s="0" t="s">
         <v>443</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6472,8 +6519,11 @@
       <c r="E19" s="0" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
         <v>255</v>
       </c>
@@ -6486,8 +6536,11 @@
       <c r="E20" s="0" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
         <v>257</v>
       </c>
@@ -6500,8 +6553,11 @@
       <c r="E21" s="0" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
         <v>259</v>
       </c>
@@ -6513,6 +6569,9 @@
       </c>
       <c r="E22" s="0" t="s">
         <v>430</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6525,6 +6584,9 @@
       <c r="E23" s="0" t="s">
         <v>430</v>
       </c>
+      <c r="F23" s="0" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
@@ -6536,6 +6598,9 @@
       <c r="E24" s="0" t="s">
         <v>430</v>
       </c>
+      <c r="F24" s="0" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
@@ -6547,6 +6612,9 @@
       <c r="E25" s="0" t="s">
         <v>430</v>
       </c>
+      <c r="F25" s="0" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
@@ -6558,6 +6626,9 @@
       <c r="E26" s="0" t="s">
         <v>430</v>
       </c>
+      <c r="F26" s="0" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
@@ -6572,8 +6643,11 @@
       <c r="E27" s="4" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F27" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
         <v>267</v>
       </c>
@@ -6583,8 +6657,11 @@
       <c r="D28" s="6" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F28" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
         <v>447</v>
       </c>
@@ -6595,6 +6672,9 @@
       <c r="D29" s="6" t="s">
         <v>269</v>
       </c>
+      <c r="F29" s="0" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
@@ -6609,8 +6689,11 @@
       <c r="E30" s="0" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F30" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>449</v>
       </c>
@@ -6621,6 +6704,9 @@
       <c r="D31" s="6" t="s">
         <v>234</v>
       </c>
+      <c r="F31" s="0" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
@@ -6632,6 +6718,9 @@
       <c r="C32" s="0" t="s">
         <v>274</v>
       </c>
+      <c r="F32" s="0" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
@@ -6646,8 +6735,11 @@
       <c r="E33" s="4" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F33" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
         <v>278</v>
       </c>
@@ -6656,6 +6748,9 @@
       </c>
       <c r="D34" s="6" t="s">
         <v>277</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6668,6 +6763,9 @@
       <c r="E35" s="0" t="s">
         <v>430</v>
       </c>
+      <c r="F35" s="0" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
@@ -6679,8 +6777,11 @@
       <c r="E36" s="0" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F36" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
         <v>282</v>
       </c>
@@ -6693,8 +6794,11 @@
       <c r="E37" s="0" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F37" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
         <v>284</v>
       </c>
@@ -6706,6 +6810,9 @@
       </c>
       <c r="E38" s="5" t="s">
         <v>442</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6718,6 +6825,9 @@
       <c r="E39" s="5" t="s">
         <v>440</v>
       </c>
+      <c r="F39" s="0" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
@@ -6729,6 +6839,9 @@
       <c r="C40" s="0" t="s">
         <v>286</v>
       </c>
+      <c r="F40" s="0" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
@@ -6740,6 +6853,9 @@
       <c r="C41" s="0" t="s">
         <v>287</v>
       </c>
+      <c r="F41" s="0" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
@@ -6751,6 +6867,9 @@
       <c r="C42" s="0" t="s">
         <v>288</v>
       </c>
+      <c r="F42" s="0" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
@@ -6762,6 +6881,9 @@
       <c r="C43" s="0" t="s">
         <v>289</v>
       </c>
+      <c r="F43" s="0" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
@@ -6776,8 +6898,11 @@
       <c r="E44" s="5" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F44" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
         <v>455</v>
       </c>
@@ -6791,6 +6916,9 @@
       <c r="E45" s="5" t="s">
         <v>455</v>
       </c>
+      <c r="F45" s="0" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
@@ -6802,6 +6930,9 @@
       <c r="C46" s="0" t="s">
         <v>295</v>
       </c>
+      <c r="F46" s="0" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
@@ -6811,8 +6942,11 @@
       <c r="C47" s="0" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F47" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>458</v>
       </c>
@@ -6823,8 +6957,11 @@
       <c r="D48" s="6" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F48" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
         <v>459</v>
       </c>
@@ -6838,8 +6975,11 @@
       <c r="E49" s="4" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F49" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>460</v>
       </c>
@@ -6850,8 +6990,11 @@
       <c r="D50" s="6" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F50" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>461</v>
       </c>
@@ -6862,8 +7005,11 @@
       <c r="D51" s="6" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F51" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
         <v>462</v>
       </c>
@@ -6877,8 +7023,11 @@
       <c r="E52" s="4" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F52" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
         <v>463</v>
       </c>
@@ -6892,8 +7041,11 @@
       <c r="E53" s="4" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F53" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
         <v>464</v>
       </c>
@@ -6907,8 +7059,11 @@
       <c r="E54" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F54" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
         <v>466</v>
       </c>
@@ -6919,6 +7074,9 @@
       <c r="D55" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="F55" s="0" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
@@ -6931,8 +7089,11 @@
         <v>323</v>
       </c>
       <c r="E56" s="4"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F56" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>467</v>
       </c>
@@ -6948,8 +7109,11 @@
       <c r="E57" s="0" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F57" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>468</v>
       </c>
@@ -6965,8 +7129,11 @@
       <c r="E58" s="0" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F58" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="5"/>
       <c r="C59" s="0" t="s">
         <v>332</v>
@@ -6974,8 +7141,11 @@
       <c r="D59" s="6" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F59" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0" t="s">
         <v>336</v>
       </c>
@@ -6985,8 +7155,11 @@
       <c r="D60" s="6" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F60" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="0" t="s">
         <v>338</v>
       </c>
@@ -6996,8 +7169,11 @@
       <c r="D61" s="6" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F61" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="0" t="s">
         <v>341</v>
       </c>
@@ -7007,8 +7183,11 @@
       <c r="D62" s="6" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F62" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="5"/>
       <c r="C63" s="0" t="s">
         <v>344</v>
@@ -7019,8 +7198,11 @@
       <c r="E63" s="0" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F63" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="0" t="s">
         <v>346</v>
       </c>
@@ -7033,8 +7215,11 @@
       <c r="E64" s="0" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F64" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="0" t="s">
         <v>348</v>
       </c>
@@ -7047,8 +7232,11 @@
       <c r="E65" s="5" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F65" s="0" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="0" t="s">
         <v>350</v>
       </c>
@@ -7061,8 +7249,11 @@
       <c r="E66" s="5" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F66" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="0" t="s">
         <v>352</v>
       </c>
@@ -7074,6 +7265,9 @@
       </c>
       <c r="E67" s="0" t="s">
         <v>470</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7086,8 +7280,11 @@
       <c r="C68" s="0" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F68" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>472</v>
       </c>
@@ -7100,8 +7297,11 @@
       <c r="D69" s="6" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F69" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
         <v>473</v>
       </c>
@@ -7112,6 +7312,9 @@
       <c r="D70" s="6" t="s">
         <v>357</v>
       </c>
+      <c r="F70" s="0" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
@@ -7126,8 +7329,11 @@
       <c r="E71" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F71" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>475</v>
       </c>
@@ -7138,8 +7344,11 @@
       <c r="D72" s="6" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F72" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>476</v>
       </c>
@@ -7152,8 +7361,11 @@
       <c r="D73" s="6" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F73" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>477</v>
       </c>
@@ -7164,8 +7376,11 @@
       <c r="D74" s="6" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F74" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
         <v>478</v>
       </c>
@@ -7179,8 +7394,11 @@
       <c r="E75" s="4" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F75" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>479</v>
       </c>
@@ -7195,6 +7413,9 @@
       </c>
       <c r="E76" s="4" t="s">
         <v>446</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7210,8 +7431,11 @@
       <c r="E77" s="5" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F77" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="s">
         <v>482</v>
       </c>
@@ -7225,8 +7449,11 @@
       <c r="E78" s="0" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F78" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>483</v>
       </c>
@@ -7238,6 +7465,9 @@
       </c>
       <c r="D79" s="6" t="s">
         <v>377</v>
+      </c>
+      <c r="F79" s="0" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7253,8 +7483,11 @@
       <c r="E80" s="0" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F80" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>486</v>
       </c>
@@ -7266,6 +7499,9 @@
       </c>
       <c r="D81" s="6" t="s">
         <v>381</v>
+      </c>
+      <c r="F81" s="0" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7278,6 +7514,9 @@
       <c r="E82" s="0" t="s">
         <v>430</v>
       </c>
+      <c r="F82" s="0" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="0" t="s">
@@ -7289,8 +7528,11 @@
       <c r="E83" s="0" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F83" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>487</v>
       </c>
@@ -7303,8 +7545,11 @@
       <c r="D84" s="6" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F84" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="0" t="s">
         <v>394</v>
       </c>
@@ -7317,8 +7562,11 @@
       <c r="E85" s="0" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F85" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="0" t="s">
         <v>396</v>
       </c>
@@ -7330,6 +7578,9 @@
       </c>
       <c r="E86" s="0" t="s">
         <v>430</v>
+      </c>
+      <c r="F86" s="0" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7342,8 +7593,11 @@
       <c r="C87" s="0" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F87" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
         <v>488</v>
       </c>
@@ -7354,8 +7608,11 @@
       <c r="D88" s="6" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F88" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
         <v>489</v>
       </c>
@@ -7366,6 +7623,9 @@
       <c r="D89" s="6" t="s">
         <v>403</v>
       </c>
+      <c r="F89" s="0" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
@@ -7377,8 +7637,11 @@
       <c r="C90" s="0" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F90" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
         <v>491</v>
       </c>
@@ -7389,6 +7652,9 @@
       <c r="D91" s="6" t="s">
         <v>408</v>
       </c>
+      <c r="F91" s="0" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
@@ -7402,6 +7668,9 @@
         <v>411</v>
       </c>
       <c r="E92" s="4"/>
+      <c r="F92" s="0" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
@@ -7413,6 +7682,9 @@
       <c r="C93" s="0" t="s">
         <v>413</v>
       </c>
+      <c r="F93" s="0" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
@@ -7427,8 +7699,11 @@
       <c r="E94" s="0" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F94" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
         <v>495</v>
       </c>
@@ -7441,8 +7716,11 @@
       <c r="D95" s="6" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F95" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="0" t="s">
         <v>418</v>
       </c>
@@ -7454,6 +7732,9 @@
       </c>
       <c r="E96" s="0" t="s">
         <v>430</v>
+      </c>
+      <c r="F96" s="0" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7465,6 +7746,9 @@
       </c>
       <c r="E97" s="0" t="s">
         <v>430</v>
+      </c>
+      <c r="F97" s="0" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
